--- a/Ведомости/Ведомость за 30.10.25-06.11.25.xlsx
+++ b/Ведомости/Ведомость за 30.10.25-06.11.25.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kola3\OneDrive\Рабочий стол\Бумажная волокита\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HollowGuardian\Ведомости\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>№ п/п</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Положительные оценки:</t>
   </si>
   <si>
-    <t>«None»</t>
-  </si>
-  <si>
-    <t>По уважительным причинам отсуствует «None» человек</t>
-  </si>
-  <si>
     <t>Офицер гильдии HollowGuardian:</t>
   </si>
   <si>
@@ -219,6 +213,33 @@
   </si>
   <si>
     <t>Главному админу сервера РНГ: Марфа</t>
+  </si>
+  <si>
+    <t>По уважительным причинам отсуствует «1» человек</t>
+  </si>
+  <si>
+    <t>«Хорошо»</t>
+  </si>
+  <si>
+    <t>30.10.25-06.11.25</t>
+  </si>
+  <si>
+    <t>У1;П2</t>
+  </si>
+  <si>
+    <t>У2;П3</t>
+  </si>
+  <si>
+    <t>П1</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>П3</t>
+  </si>
+  <si>
+    <t>У4;П4</t>
   </si>
 </sst>
 </file>
@@ -271,7 +292,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +325,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC2A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDCC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -459,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,8 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,61 +571,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,17 +600,125 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +728,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF2076B2"/>
+      <color rgb="FFD89A02"/>
       <color rgb="FF815F32"/>
       <color rgb="FF90279C"/>
-      <color rgb="FFD89A02"/>
+      <color rgb="FFFFFFE1"/>
+      <color rgb="FFFDDCC7"/>
+      <color rgb="FFFFABAB"/>
+      <color rgb="FFFFC2A3"/>
+      <color rgb="FF2076B2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -773,19 +886,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:colOff>417535</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>93381</xdr:rowOff>
+      <xdr:rowOff>104384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1101559</xdr:colOff>
+      <xdr:colOff>961207</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>156812</xdr:rowOff>
+      <xdr:rowOff>131245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -797,9 +910,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9991912" y="13559116"/>
-          <a:ext cx="2819794" cy="847843"/>
+        <a:xfrm rot="21131504">
+          <a:off x="10138254" y="15109521"/>
+          <a:ext cx="2553056" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -811,19 +924,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>597647</xdr:colOff>
+      <xdr:colOff>639350</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>65240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>840441</xdr:colOff>
+      <xdr:colOff>821022</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>219779</xdr:rowOff>
+      <xdr:rowOff>181586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -836,14 +949,208 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10309412" y="12475883"/>
-          <a:ext cx="2241176" cy="686690"/>
+          <a:off x="10360069" y="14026541"/>
+          <a:ext cx="2191056" cy="638264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508869</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>93970</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="19959298">
+          <a:off x="10229588" y="391439"/>
+          <a:ext cx="1594485" cy="1594485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>456678</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>284045</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>199808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20259264">
+          <a:off x="8037534" y="14378836"/>
+          <a:ext cx="1967230" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>639349</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149216</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Надпись 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20266097">
+          <a:off x="8220205" y="14378833"/>
+          <a:ext cx="1649730" cy="725170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="538135"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Допущено</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1115,7 +1422,7 @@
   <dimension ref="A1:BK448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1516,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="14"/>
@@ -1274,12 +1581,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
-        <v>62</v>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
+        <v>60</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -1341,11 +1648,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
-        <v>63</v>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
+        <v>61</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -1408,11 +1715,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="50" t="s">
-        <v>64</v>
+      <c r="I5" s="21"/>
+      <c r="J5" s="30" t="s">
+        <v>62</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1476,9 +1783,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="24"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -1541,10 +1848,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="51">
+      <c r="J7" s="31">
         <v>45936</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1670,10 +1977,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1735,13 +2042,15 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="13"/>
       <c r="K10" s="1"/>
       <c r="L10" s="14"/>
@@ -1801,20 +2110,26 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="70">
+        <v>58</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="68">
+        <v>180</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="71">
+        <v>45967</v>
+      </c>
+      <c r="K11" s="71"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -2065,31 +2380,31 @@
     </row>
     <row r="15" spans="1:63" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="27" t="s">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="42" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="1"/>
@@ -2146,10 +2461,10 @@
     </row>
     <row r="16" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
@@ -2162,9 +2477,9 @@
       <c r="I16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2229,17 +2544,19 @@
         <v>11</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>2890</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="23">
+        <v>5</v>
+      </c>
+      <c r="L17" s="23"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2304,17 +2621,19 @@
         <v>12</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>2484</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="23">
+        <v>5</v>
+      </c>
+      <c r="L18" s="23"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2379,17 +2698,19 @@
         <v>13</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>3399</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="23">
+        <v>5</v>
+      </c>
+      <c r="L19" s="23"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2454,17 +2775,19 @@
         <v>14</v>
       </c>
       <c r="E20" s="11">
-        <v>0</v>
+        <v>2859</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="23">
+        <v>5</v>
+      </c>
+      <c r="L20" s="23"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2529,17 +2852,19 @@
         <v>15</v>
       </c>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>3651</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="23">
+        <v>5</v>
+      </c>
+      <c r="L21" s="23"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2603,18 +2928,22 @@
       <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="11">
-        <v>0</v>
+      <c r="E22" s="67">
+        <v>1385</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="12">
-        <v>0</v>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="64">
+        <v>16</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="23">
+        <v>4</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2679,17 +3008,19 @@
         <v>17</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>3726</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="23">
+        <v>5</v>
+      </c>
+      <c r="L23" s="23"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2753,18 +3084,22 @@
       <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="11">
-        <v>0</v>
+      <c r="E24" s="65">
+        <v>983</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="12">
-        <v>0</v>
+      <c r="F24" s="56"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="62">
+        <v>12</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="23">
+        <v>3</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2829,17 +3164,19 @@
         <v>19</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>2956</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="23">
+        <v>5</v>
+      </c>
+      <c r="L25" s="23"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2904,17 +3241,21 @@
         <v>20</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>1795</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="12">
-        <v>0</v>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="63">
+        <v>18</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="23">
+        <v>4</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2979,17 +3320,19 @@
         <v>21</v>
       </c>
       <c r="E27" s="11">
-        <v>0</v>
+        <v>4145</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="23">
+        <v>5</v>
+      </c>
+      <c r="L27" s="23"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3054,17 +3397,21 @@
         <v>22</v>
       </c>
       <c r="E28" s="11">
-        <v>0</v>
+        <v>1866</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="12">
-        <v>0</v>
+      <c r="F28" s="56"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="64">
+        <v>15</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="23">
+        <v>4</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3129,17 +3476,21 @@
         <v>23</v>
       </c>
       <c r="E29" s="11">
-        <v>0</v>
+        <v>2081</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="12">
-        <v>0</v>
+      <c r="F29" s="56"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="64">
+        <v>15</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="23">
+        <v>4</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3204,17 +3555,19 @@
         <v>24</v>
       </c>
       <c r="E30" s="11">
-        <v>0</v>
+        <v>2443</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="12">
-        <v>0</v>
+      <c r="F30" s="56"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="63">
+        <v>20</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="23">
+        <v>4</v>
+      </c>
+      <c r="L30" s="23"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3279,17 +3632,21 @@
         <v>25</v>
       </c>
       <c r="E31" s="11">
-        <v>0</v>
+        <v>1732</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="12">
-        <v>0</v>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="62">
+        <v>12</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="23">
+        <v>4</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3354,17 +3711,19 @@
         <v>26</v>
       </c>
       <c r="E32" s="11">
-        <v>0</v>
+        <v>3046</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
       <c r="J32" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="23">
+        <v>5</v>
+      </c>
+      <c r="L32" s="23"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3429,17 +3788,19 @@
         <v>27</v>
       </c>
       <c r="E33" s="11">
-        <v>0</v>
+        <v>2363</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="23">
+        <v>5</v>
+      </c>
+      <c r="L33" s="23"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3503,18 +3864,22 @@
       <c r="D34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="11">
-        <v>0</v>
+      <c r="E34" s="67">
+        <v>1102</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="12">
-        <v>0</v>
+      <c r="F34" s="56"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="64">
+        <v>14</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="23">
+        <v>3</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3578,18 +3943,22 @@
       <c r="D35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="66">
         <v>0</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="12">
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61">
         <v>0</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="23">
+        <v>2</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3653,18 +4022,22 @@
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="11">
-        <v>0</v>
+      <c r="E36" s="66">
+        <v>475</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="12">
-        <v>0</v>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="61">
+        <v>2</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="K36" s="23">
+        <v>2</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3729,17 +4102,21 @@
         <v>30</v>
       </c>
       <c r="E37" s="11">
-        <v>0</v>
+        <v>2850</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="12">
-        <v>0</v>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="64">
+        <v>15</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="K37" s="23">
+        <v>4</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3804,17 +4181,19 @@
         <v>31</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>3877</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="K38" s="23">
+        <v>5</v>
+      </c>
+      <c r="L38" s="23"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3878,18 +4257,22 @@
       <c r="D39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="66">
         <v>0</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="12">
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61">
         <v>0</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="K39" s="23">
+        <v>2</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3953,18 +4336,22 @@
       <c r="D40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="66">
         <v>0</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="12">
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61">
         <v>0</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="K40" s="23">
+        <v>2</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -4029,17 +4416,19 @@
         <v>34</v>
       </c>
       <c r="E41" s="11">
-        <v>0</v>
+        <v>2356</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="12">
-        <v>0</v>
+        <v>21</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="K41" s="23">
+        <v>5</v>
+      </c>
+      <c r="L41" s="23"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4494,26 +4883,26 @@
     </row>
     <row r="48" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="17">
+      <c r="C48" s="46"/>
+      <c r="D48" s="15">
         <v>25</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <f xml:space="preserve"> D48 / $D$48 * 100</f>
         <v>100</v>
       </c>
-      <c r="F48" s="31" t="s">
-        <v>55</v>
+      <c r="F48" s="36" t="s">
+        <v>63</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4568,28 +4957,28 @@
     </row>
     <row r="49" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="17">
+      <c r="C49" s="46"/>
+      <c r="D49" s="15">
         <v>25</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="16">
         <f xml:space="preserve"> D49 / $D$48 * 100</f>
         <v>100</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>57</v>
+      <c r="F49" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="36" t="s">
-        <v>58</v>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="39" t="s">
+        <v>56</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -4644,23 +5033,23 @@
     </row>
     <row r="50" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="34" t="s">
-        <v>56</v>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="33" t="s">
+        <v>54</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="20" t="s">
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4715,26 +5104,26 @@
     </row>
     <row r="51" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="17">
-        <v>0</v>
+      <c r="C51" s="53"/>
+      <c r="D51" s="15">
+        <v>12</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="16">
         <f xml:space="preserve"> D51 / $D$48 * 100</f>
-        <v>0</v>
+        <v>48</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>60</v>
+      <c r="F51" s="36" t="s">
+        <v>58</v>
       </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -4789,26 +5178,26 @@
     </row>
     <row r="52" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="17">
-        <v>0</v>
+      <c r="C52" s="53"/>
+      <c r="D52" s="15">
+        <v>7</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="16">
         <f xml:space="preserve"> D52 / $D$48 * 100</f>
-        <v>0</v>
+        <v>28.000000000000004</v>
       </c>
-      <c r="F52" s="34" t="s">
-        <v>59</v>
+      <c r="F52" s="33" t="s">
+        <v>57</v>
       </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -4863,26 +5252,26 @@
     </row>
     <row r="53" spans="1:63" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="17">
-        <v>0</v>
+      <c r="C53" s="53"/>
+      <c r="D53" s="15">
+        <v>2</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="16">
         <f t="shared" ref="E53:E54" si="0" xml:space="preserve"> D53 / $D$48 * 100</f>
-        <v>0</v>
+        <v>8</v>
       </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="36" t="s">
-        <v>58</v>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="39" t="s">
+        <v>56</v>
       </c>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -4936,24 +5325,24 @@
       <c r="BK53" s="2"/>
     </row>
     <row r="54" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="17">
-        <v>0</v>
+      <c r="C54" s="51"/>
+      <c r="D54" s="15">
+        <v>4</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -5007,24 +5396,25 @@
       <c r="BK54" s="2"/>
     </row>
     <row r="55" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38">
-        <v>0</v>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48">
+        <f>SUM(D51:D53)</f>
+        <v>21</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="49">
         <f xml:space="preserve"> D55 / $D$48 * 100</f>
-        <v>0</v>
+        <v>84</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -5078,17 +5468,17 @@
       <c r="BK55" s="2"/>
     </row>
     <row r="56" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -5142,21 +5532,21 @@
       <c r="BK56" s="2"/>
     </row>
     <row r="57" spans="1:63" ht="21" x14ac:dyDescent="0.35">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30" t="s">
-        <v>54</v>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44" t="s">
+        <v>64</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -30234,18 +30624,15 @@
       <c r="BK448" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="F53:I57"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="J50:L52"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="L15:L16"/>
+  <mergeCells count="36">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="F49:H49"/>
@@ -30262,17 +30649,24 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F53:I57"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="J50:L52"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D55" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>